--- a/biology/Zoologie/Cossyphe_de_Heuglin/Cossyphe_de_Heuglin.xlsx
+++ b/biology/Zoologie/Cossyphe_de_Heuglin/Cossyphe_de_Heuglin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cossypha heuglini
 Le Cossyphe de Heuglin (Cossypha heuglini), également appelé cossyphe à sourcils blancs, est une espèce de passereaux de la famille des Muscicapidae.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente notamment bosquets et forêts humides tropicales (miombo...) en Afrique subsaharienne.
 </t>
@@ -543,7 +557,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chant de cet oiseau inspira à Olivier Messiaen une page entière de musique pour piano dans son œuvre "des canyons aux étoiles..." (1974). Il s'agit du quatrième tableau de la première partie de l'œuvre (œuvre en trois parties et douze tableaux).
 </t>
